--- a/codes/stats.xlsx
+++ b/codes/stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59796A63-1F58-4864-84FC-37D0D0F47394}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778AA670-B986-4DB4-BF6B-C866AD2978E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="32">
   <si>
     <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>7-14-24~【2018-2019.04.30】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-14-24~【2018-2019.05.01】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20444,6 +20448,990 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="495006200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$190</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$189:$M$189</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$190:$M$190</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9266394961096701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5954057058169697E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13560577991848832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17895516858095592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19896257873286402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13634679510929973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.114116339384958E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5201926639496112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7788069655427936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6672841793256763E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3349388662467583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B054-4983-BABA-E22E53EA7956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$191</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$189:$M$189</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$191:$M$191</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3708781030011115E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1871063356798815E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12189699888847721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17117450907743609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20785476102260098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15116709892552796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10448314190440904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5209336791404227E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3716191181919229E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5213041867358277E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B054-4983-BABA-E22E53EA7956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="646993528"/>
+        <c:axId val="646994168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="646993528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646994168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="646994168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646993528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$208</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$207:$M$207</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$208:$M$208</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9266394961096701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5954057058169697E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13560577991848832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17895516858095592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19896257873286402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13634679510929973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.114116339384958E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5201926639496112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7788069655427936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6672841793256763E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3349388662467583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E31-4839-915E-65E74051A302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$209</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$207:$M$207</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$209:$M$209</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4079288625416821E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1130048165987402E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11930344572063727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17191552426824749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20637273064097814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15190811411633939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10448314190440904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7432382363838458E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4086698777324932E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.558354946276398E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E31-4839-915E-65E74051A302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="646976568"/>
+        <c:axId val="646976888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="646976568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646976888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="646976888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646976568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24630,6 +25618,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors47.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors48.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -44951,6 +46019,1012 @@
 </file>
 
 <file path=xl/charts/style46.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style47.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style48.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -50908,6 +52982,89 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655319</xdr:colOff>
+      <xdr:row>647</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6540000" cy="1693334"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="图片 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9044591-B5F6-404F-8ADA-4F9AD3BFDED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655319" y="110764320"/>
+          <a:ext cx="6540000" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>662</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209674</xdr:colOff>
+      <xdr:row>672</xdr:row>
+      <xdr:rowOff>7400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="图片 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B2EDB8-BD09-4AA3-9C94-69795C1FF28A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="116022120"/>
+          <a:ext cx="6633333" cy="1760000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -51708,6 +53865,161 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655319</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6540000" cy="1693334"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B12CEE-44E4-45E5-BE0C-2C73BBA81B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655319" y="113393220"/>
+          <a:ext cx="6540000" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>537334</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>7400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F51B82-6F32-4FA4-A4C6-32626A06FEE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="116022120"/>
+          <a:ext cx="6633333" cy="1760000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="图表 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE14FB48-E215-4018-8BB5-62F890A6FB8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="图表 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C826F2D4-8A3A-4195-806C-927A30330718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -51974,10 +54286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC645"/>
+  <dimension ref="A1:AC675"/>
   <sheetViews>
-    <sheetView topLeftCell="A624" workbookViewId="0">
-      <selection activeCell="A632" sqref="A632:X645"/>
+    <sheetView topLeftCell="A645" workbookViewId="0">
+      <selection activeCell="A647" sqref="A647:Y675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -56809,6 +59121,256 @@
         <v>203</v>
       </c>
     </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B658" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G658" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H658" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I658" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J658" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K658" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L658" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M658" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1</v>
+      </c>
+      <c r="B659" s="1">
+        <v>52</v>
+      </c>
+      <c r="C659" s="1">
+        <v>110</v>
+      </c>
+      <c r="D659" s="1">
+        <v>205</v>
+      </c>
+      <c r="E659" s="1">
+        <v>366</v>
+      </c>
+      <c r="F659" s="1">
+        <v>483</v>
+      </c>
+      <c r="G659" s="1">
+        <v>537</v>
+      </c>
+      <c r="H659" s="1">
+        <v>368</v>
+      </c>
+      <c r="I659" s="1">
+        <v>219</v>
+      </c>
+      <c r="J659" s="1">
+        <v>122</v>
+      </c>
+      <c r="K659" s="1">
+        <v>75</v>
+      </c>
+      <c r="L659" s="1">
+        <v>45</v>
+      </c>
+      <c r="M659" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>0</v>
+      </c>
+      <c r="B660" s="1">
+        <v>0</v>
+      </c>
+      <c r="C660" s="1">
+        <v>11</v>
+      </c>
+      <c r="D660" s="1">
+        <v>37</v>
+      </c>
+      <c r="E660" s="1">
+        <v>140</v>
+      </c>
+      <c r="F660" s="1">
+        <v>329</v>
+      </c>
+      <c r="G660" s="1">
+        <v>462</v>
+      </c>
+      <c r="H660" s="1">
+        <v>561</v>
+      </c>
+      <c r="I660" s="1">
+        <v>408</v>
+      </c>
+      <c r="J660" s="1">
+        <v>282</v>
+      </c>
+      <c r="K660" s="1">
+        <v>176</v>
+      </c>
+      <c r="L660" s="1">
+        <v>91</v>
+      </c>
+      <c r="M660" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B673" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G673" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H673" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I673" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J673" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K673" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L673" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M673" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>1</v>
+      </c>
+      <c r="B674" s="1">
+        <v>52</v>
+      </c>
+      <c r="C674" s="1">
+        <v>110</v>
+      </c>
+      <c r="D674" s="1">
+        <v>205</v>
+      </c>
+      <c r="E674" s="1">
+        <v>366</v>
+      </c>
+      <c r="F674" s="1">
+        <v>483</v>
+      </c>
+      <c r="G674" s="1">
+        <v>537</v>
+      </c>
+      <c r="H674" s="1">
+        <v>368</v>
+      </c>
+      <c r="I674" s="1">
+        <v>219</v>
+      </c>
+      <c r="J674" s="1">
+        <v>122</v>
+      </c>
+      <c r="K674" s="1">
+        <v>75</v>
+      </c>
+      <c r="L674" s="1">
+        <v>45</v>
+      </c>
+      <c r="M674" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>0</v>
+      </c>
+      <c r="B675" s="1">
+        <v>0</v>
+      </c>
+      <c r="C675" s="1">
+        <v>11</v>
+      </c>
+      <c r="D675" s="1">
+        <v>38</v>
+      </c>
+      <c r="E675" s="1">
+        <v>138</v>
+      </c>
+      <c r="F675" s="1">
+        <v>322</v>
+      </c>
+      <c r="G675" s="1">
+        <v>464</v>
+      </c>
+      <c r="H675" s="1">
+        <v>557</v>
+      </c>
+      <c r="I675" s="1">
+        <v>410</v>
+      </c>
+      <c r="J675" s="1">
+        <v>282</v>
+      </c>
+      <c r="K675" s="1">
+        <v>182</v>
+      </c>
+      <c r="L675" s="1">
+        <v>92</v>
+      </c>
+      <c r="M675" s="1">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56819,10 +59381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A7428-0272-4621-8266-47B00E14046B}">
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -58855,6 +61417,560 @@
         <v>7.5213041867358277E-2</v>
       </c>
     </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="1">
+        <v>52</v>
+      </c>
+      <c r="C187" s="1">
+        <v>110</v>
+      </c>
+      <c r="D187" s="1">
+        <v>205</v>
+      </c>
+      <c r="E187" s="1">
+        <v>366</v>
+      </c>
+      <c r="F187" s="1">
+        <v>483</v>
+      </c>
+      <c r="G187" s="1">
+        <v>537</v>
+      </c>
+      <c r="H187" s="1">
+        <v>368</v>
+      </c>
+      <c r="I187" s="1">
+        <v>219</v>
+      </c>
+      <c r="J187" s="1">
+        <v>122</v>
+      </c>
+      <c r="K187" s="1">
+        <v>75</v>
+      </c>
+      <c r="L187" s="1">
+        <v>45</v>
+      </c>
+      <c r="M187" s="1">
+        <v>117</v>
+      </c>
+      <c r="N187">
+        <f>SUM(B187:M187)</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="1">
+        <v>0</v>
+      </c>
+      <c r="C188" s="1">
+        <v>11</v>
+      </c>
+      <c r="D188" s="1">
+        <v>37</v>
+      </c>
+      <c r="E188" s="1">
+        <v>140</v>
+      </c>
+      <c r="F188" s="1">
+        <v>329</v>
+      </c>
+      <c r="G188" s="1">
+        <v>462</v>
+      </c>
+      <c r="H188" s="1">
+        <v>561</v>
+      </c>
+      <c r="I188" s="1">
+        <v>408</v>
+      </c>
+      <c r="J188" s="1">
+        <v>282</v>
+      </c>
+      <c r="K188" s="1">
+        <v>176</v>
+      </c>
+      <c r="L188" s="1">
+        <v>91</v>
+      </c>
+      <c r="M188" s="1">
+        <v>203</v>
+      </c>
+      <c r="N188">
+        <f>N187</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="3">
+        <f>B187/N187</f>
+        <v>1.9266394961096701E-2</v>
+      </c>
+      <c r="C190" s="3">
+        <f>C187/N187</f>
+        <v>4.0755835494627642E-2</v>
+      </c>
+      <c r="D190" s="3">
+        <f>D187/N187</f>
+        <v>7.5954057058169697E-2</v>
+      </c>
+      <c r="E190" s="3">
+        <f>E187/N187</f>
+        <v>0.13560577991848832</v>
+      </c>
+      <c r="F190" s="3">
+        <f>F187/N187</f>
+        <v>0.17895516858095592</v>
+      </c>
+      <c r="G190" s="3">
+        <f>G187/N187</f>
+        <v>0.19896257873286402</v>
+      </c>
+      <c r="H190" s="3">
+        <f>H187/N187</f>
+        <v>0.13634679510929973</v>
+      </c>
+      <c r="I190" s="3">
+        <f>I187/N187</f>
+        <v>8.114116339384958E-2</v>
+      </c>
+      <c r="J190" s="3">
+        <f>J187/N187</f>
+        <v>4.5201926639496112E-2</v>
+      </c>
+      <c r="K190" s="3">
+        <f>K187/N187</f>
+        <v>2.7788069655427936E-2</v>
+      </c>
+      <c r="L190" s="3">
+        <f>L187/N187</f>
+        <v>1.6672841793256763E-2</v>
+      </c>
+      <c r="M190" s="3">
+        <f>M187/N187</f>
+        <v>4.3349388662467583E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="3">
+        <f>B188/N188</f>
+        <v>0</v>
+      </c>
+      <c r="C191" s="3">
+        <f>C188/N188</f>
+        <v>4.0755835494627642E-3</v>
+      </c>
+      <c r="D191" s="3">
+        <f>D188/N188</f>
+        <v>1.3708781030011115E-2</v>
+      </c>
+      <c r="E191" s="3">
+        <f>E188/N188</f>
+        <v>5.1871063356798815E-2</v>
+      </c>
+      <c r="F191" s="3">
+        <f>F188/N188</f>
+        <v>0.12189699888847721</v>
+      </c>
+      <c r="G191" s="3">
+        <f>G188/N188</f>
+        <v>0.17117450907743609</v>
+      </c>
+      <c r="H191" s="3">
+        <f>H188/N188</f>
+        <v>0.20785476102260098</v>
+      </c>
+      <c r="I191" s="3">
+        <f>I188/N188</f>
+        <v>0.15116709892552796</v>
+      </c>
+      <c r="J191" s="3">
+        <f>J188/N188</f>
+        <v>0.10448314190440904</v>
+      </c>
+      <c r="K191" s="3">
+        <f>K188/N188</f>
+        <v>6.5209336791404227E-2</v>
+      </c>
+      <c r="L191" s="3">
+        <f>L188/N188</f>
+        <v>3.3716191181919229E-2</v>
+      </c>
+      <c r="M191" s="3">
+        <f>M188/N188</f>
+        <v>7.5213041867358277E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="1">
+        <v>52</v>
+      </c>
+      <c r="C205" s="1">
+        <v>110</v>
+      </c>
+      <c r="D205" s="1">
+        <v>205</v>
+      </c>
+      <c r="E205" s="1">
+        <v>366</v>
+      </c>
+      <c r="F205" s="1">
+        <v>483</v>
+      </c>
+      <c r="G205" s="1">
+        <v>537</v>
+      </c>
+      <c r="H205" s="1">
+        <v>368</v>
+      </c>
+      <c r="I205" s="1">
+        <v>219</v>
+      </c>
+      <c r="J205" s="1">
+        <v>122</v>
+      </c>
+      <c r="K205" s="1">
+        <v>75</v>
+      </c>
+      <c r="L205" s="1">
+        <v>45</v>
+      </c>
+      <c r="M205" s="1">
+        <v>117</v>
+      </c>
+      <c r="N205">
+        <f>SUM(B205:M205)</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="1">
+        <v>0</v>
+      </c>
+      <c r="C206" s="1">
+        <v>11</v>
+      </c>
+      <c r="D206" s="1">
+        <v>38</v>
+      </c>
+      <c r="E206" s="1">
+        <v>138</v>
+      </c>
+      <c r="F206" s="1">
+        <v>322</v>
+      </c>
+      <c r="G206" s="1">
+        <v>464</v>
+      </c>
+      <c r="H206" s="1">
+        <v>557</v>
+      </c>
+      <c r="I206" s="1">
+        <v>410</v>
+      </c>
+      <c r="J206" s="1">
+        <v>282</v>
+      </c>
+      <c r="K206" s="1">
+        <v>182</v>
+      </c>
+      <c r="L206" s="1">
+        <v>92</v>
+      </c>
+      <c r="M206" s="1">
+        <v>204</v>
+      </c>
+      <c r="N206">
+        <f>N205</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="3">
+        <f>B205/N205</f>
+        <v>1.9266394961096701E-2</v>
+      </c>
+      <c r="C208" s="3">
+        <f>C205/N205</f>
+        <v>4.0755835494627642E-2</v>
+      </c>
+      <c r="D208" s="3">
+        <f>D205/N205</f>
+        <v>7.5954057058169697E-2</v>
+      </c>
+      <c r="E208" s="3">
+        <f>E205/N205</f>
+        <v>0.13560577991848832</v>
+      </c>
+      <c r="F208" s="3">
+        <f>F205/N205</f>
+        <v>0.17895516858095592</v>
+      </c>
+      <c r="G208" s="3">
+        <f>G205/N205</f>
+        <v>0.19896257873286402</v>
+      </c>
+      <c r="H208" s="3">
+        <f>H205/N205</f>
+        <v>0.13634679510929973</v>
+      </c>
+      <c r="I208" s="3">
+        <f>I205/N205</f>
+        <v>8.114116339384958E-2</v>
+      </c>
+      <c r="J208" s="3">
+        <f>J205/N205</f>
+        <v>4.5201926639496112E-2</v>
+      </c>
+      <c r="K208" s="3">
+        <f>K205/N205</f>
+        <v>2.7788069655427936E-2</v>
+      </c>
+      <c r="L208" s="3">
+        <f>L205/N205</f>
+        <v>1.6672841793256763E-2</v>
+      </c>
+      <c r="M208" s="3">
+        <f>M205/N205</f>
+        <v>4.3349388662467583E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="3">
+        <f>B206/N206</f>
+        <v>0</v>
+      </c>
+      <c r="C209" s="3">
+        <f>C206/N206</f>
+        <v>4.0755835494627642E-3</v>
+      </c>
+      <c r="D209" s="3">
+        <f>D206/N206</f>
+        <v>1.4079288625416821E-2</v>
+      </c>
+      <c r="E209" s="3">
+        <f>E206/N206</f>
+        <v>5.1130048165987402E-2</v>
+      </c>
+      <c r="F209" s="3">
+        <f>F206/N206</f>
+        <v>0.11930344572063727</v>
+      </c>
+      <c r="G209" s="3">
+        <f>G206/N206</f>
+        <v>0.17191552426824749</v>
+      </c>
+      <c r="H209" s="3">
+        <f>H206/N206</f>
+        <v>0.20637273064097814</v>
+      </c>
+      <c r="I209" s="3">
+        <f>I206/N206</f>
+        <v>0.15190811411633939</v>
+      </c>
+      <c r="J209" s="3">
+        <f>J206/N206</f>
+        <v>0.10448314190440904</v>
+      </c>
+      <c r="K209" s="3">
+        <f>K206/N206</f>
+        <v>6.7432382363838458E-2</v>
+      </c>
+      <c r="L209" s="3">
+        <f>L206/N206</f>
+        <v>3.4086698777324932E-2</v>
+      </c>
+      <c r="M209" s="3">
+        <f>M206/N206</f>
+        <v>7.558354946276398E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/codes/stats.xlsx
+++ b/codes/stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778AA670-B986-4DB4-BF6B-C866AD2978E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC19323B-0B82-45F0-A411-4D8A7D22A32B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="32">
   <si>
     <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21432,6 +21432,498 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="646976568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$226</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$225:$M$225</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$226:$M$226</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9266394961096701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5954057058169697E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13560577991848832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17895516858095592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19896257873286402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13634679510929973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.114116339384958E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5201926639496112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7788069655427936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6672841793256763E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3349388662467583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5A9-4579-A528-1D4D8FC9FBC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$227</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$225:$M$225</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$227:$M$227</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.333827343460541E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0389032975175989E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11708040014820303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17043349388662468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20822526861800666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15005557613931086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10929974064468322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4468321600592807E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4086698777324932E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8918117821415334E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5A9-4579-A528-1D4D8FC9FBC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="554389688"/>
+        <c:axId val="554387448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="554389688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554387448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554387448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554389688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25698,6 +26190,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors49.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -47025,6 +47557,509 @@
 </file>
 
 <file path=xl/charts/style48.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style49.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -53065,6 +54100,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>677</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>216340</xdr:colOff>
+      <xdr:row>687</xdr:row>
+      <xdr:rowOff>7400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="图片 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D922C3-47E3-4F05-97E7-580AB317859C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="118651020"/>
+          <a:ext cx="6640000" cy="1760000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -54020,6 +55099,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>544000</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>7400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB6C7C1-30ED-4945-8FE0-6BCD5D1F24A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="118651020"/>
+          <a:ext cx="6640000" cy="1760000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="图表 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0074DD99-02E0-4AE6-8B7E-752FEA9DB743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -54286,10 +55445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC675"/>
+  <dimension ref="A1:AC690"/>
   <sheetViews>
-    <sheetView topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="A647" sqref="A647:Y675"/>
+    <sheetView topLeftCell="A666" workbookViewId="0">
+      <selection activeCell="A677" sqref="A677:Y690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -59371,6 +60530,131 @@
         <v>204</v>
       </c>
     </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B688" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G688" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H688" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I688" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J688" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K688" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L688" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M688" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1</v>
+      </c>
+      <c r="B689" s="1">
+        <v>52</v>
+      </c>
+      <c r="C689" s="1">
+        <v>110</v>
+      </c>
+      <c r="D689" s="1">
+        <v>205</v>
+      </c>
+      <c r="E689" s="1">
+        <v>366</v>
+      </c>
+      <c r="F689" s="1">
+        <v>483</v>
+      </c>
+      <c r="G689" s="1">
+        <v>537</v>
+      </c>
+      <c r="H689" s="1">
+        <v>368</v>
+      </c>
+      <c r="I689" s="1">
+        <v>219</v>
+      </c>
+      <c r="J689" s="1">
+        <v>122</v>
+      </c>
+      <c r="K689" s="1">
+        <v>75</v>
+      </c>
+      <c r="L689" s="1">
+        <v>45</v>
+      </c>
+      <c r="M689" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>0</v>
+      </c>
+      <c r="B690" s="1">
+        <v>0</v>
+      </c>
+      <c r="C690" s="1">
+        <v>11</v>
+      </c>
+      <c r="D690" s="1">
+        <v>36</v>
+      </c>
+      <c r="E690" s="1">
+        <v>136</v>
+      </c>
+      <c r="F690" s="1">
+        <v>316</v>
+      </c>
+      <c r="G690" s="1">
+        <v>460</v>
+      </c>
+      <c r="H690" s="1">
+        <v>562</v>
+      </c>
+      <c r="I690" s="1">
+        <v>405</v>
+      </c>
+      <c r="J690" s="1">
+        <v>295</v>
+      </c>
+      <c r="K690" s="1">
+        <v>174</v>
+      </c>
+      <c r="L690" s="1">
+        <v>92</v>
+      </c>
+      <c r="M690" s="1">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59381,10 +60665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A7428-0272-4621-8266-47B00E14046B}">
-  <dimension ref="A1:N209"/>
+  <dimension ref="A1:N227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -61918,7 +63202,7 @@
         <v>4.3349388662467583E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -61969,6 +63253,283 @@
       <c r="M209" s="3">
         <f>M206/N206</f>
         <v>7.558354946276398E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="1">
+        <v>52</v>
+      </c>
+      <c r="C223" s="1">
+        <v>110</v>
+      </c>
+      <c r="D223" s="1">
+        <v>205</v>
+      </c>
+      <c r="E223" s="1">
+        <v>366</v>
+      </c>
+      <c r="F223" s="1">
+        <v>483</v>
+      </c>
+      <c r="G223" s="1">
+        <v>537</v>
+      </c>
+      <c r="H223" s="1">
+        <v>368</v>
+      </c>
+      <c r="I223" s="1">
+        <v>219</v>
+      </c>
+      <c r="J223" s="1">
+        <v>122</v>
+      </c>
+      <c r="K223" s="1">
+        <v>75</v>
+      </c>
+      <c r="L223" s="1">
+        <v>45</v>
+      </c>
+      <c r="M223" s="1">
+        <v>117</v>
+      </c>
+      <c r="N223">
+        <f>SUM(B223:M223)</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="1">
+        <v>0</v>
+      </c>
+      <c r="C224" s="1">
+        <v>11</v>
+      </c>
+      <c r="D224" s="1">
+        <v>36</v>
+      </c>
+      <c r="E224" s="1">
+        <v>136</v>
+      </c>
+      <c r="F224" s="1">
+        <v>316</v>
+      </c>
+      <c r="G224" s="1">
+        <v>460</v>
+      </c>
+      <c r="H224" s="1">
+        <v>562</v>
+      </c>
+      <c r="I224" s="1">
+        <v>405</v>
+      </c>
+      <c r="J224" s="1">
+        <v>295</v>
+      </c>
+      <c r="K224" s="1">
+        <v>174</v>
+      </c>
+      <c r="L224" s="1">
+        <v>92</v>
+      </c>
+      <c r="M224" s="1">
+        <v>213</v>
+      </c>
+      <c r="N224">
+        <f>N223</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="3">
+        <f>B223/N223</f>
+        <v>1.9266394961096701E-2</v>
+      </c>
+      <c r="C226" s="3">
+        <f>C223/N223</f>
+        <v>4.0755835494627642E-2</v>
+      </c>
+      <c r="D226" s="3">
+        <f>D223/N223</f>
+        <v>7.5954057058169697E-2</v>
+      </c>
+      <c r="E226" s="3">
+        <f>E223/N223</f>
+        <v>0.13560577991848832</v>
+      </c>
+      <c r="F226" s="3">
+        <f>F223/N223</f>
+        <v>0.17895516858095592</v>
+      </c>
+      <c r="G226" s="3">
+        <f>G223/N223</f>
+        <v>0.19896257873286402</v>
+      </c>
+      <c r="H226" s="3">
+        <f>H223/N223</f>
+        <v>0.13634679510929973</v>
+      </c>
+      <c r="I226" s="3">
+        <f>I223/N223</f>
+        <v>8.114116339384958E-2</v>
+      </c>
+      <c r="J226" s="3">
+        <f>J223/N223</f>
+        <v>4.5201926639496112E-2</v>
+      </c>
+      <c r="K226" s="3">
+        <f>K223/N223</f>
+        <v>2.7788069655427936E-2</v>
+      </c>
+      <c r="L226" s="3">
+        <f>L223/N223</f>
+        <v>1.6672841793256763E-2</v>
+      </c>
+      <c r="M226" s="3">
+        <f>M223/N223</f>
+        <v>4.3349388662467583E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="3">
+        <f>B224/N224</f>
+        <v>0</v>
+      </c>
+      <c r="C227" s="3">
+        <f>C224/N224</f>
+        <v>4.0755835494627642E-3</v>
+      </c>
+      <c r="D227" s="3">
+        <f>D224/N224</f>
+        <v>1.333827343460541E-2</v>
+      </c>
+      <c r="E227" s="3">
+        <f>E224/N224</f>
+        <v>5.0389032975175989E-2</v>
+      </c>
+      <c r="F227" s="3">
+        <f>F224/N224</f>
+        <v>0.11708040014820303</v>
+      </c>
+      <c r="G227" s="3">
+        <f>G224/N224</f>
+        <v>0.17043349388662468</v>
+      </c>
+      <c r="H227" s="3">
+        <f>H224/N224</f>
+        <v>0.20822526861800666</v>
+      </c>
+      <c r="I227" s="3">
+        <f>I224/N224</f>
+        <v>0.15005557613931086</v>
+      </c>
+      <c r="J227" s="3">
+        <f>J224/N224</f>
+        <v>0.10929974064468322</v>
+      </c>
+      <c r="K227" s="3">
+        <f>K224/N224</f>
+        <v>6.4468321600592807E-2</v>
+      </c>
+      <c r="L227" s="3">
+        <f>L224/N224</f>
+        <v>3.4086698777324932E-2</v>
+      </c>
+      <c r="M227" s="3">
+        <f>M224/N224</f>
+        <v>7.8918117821415334E-2</v>
       </c>
     </row>
   </sheetData>

--- a/codes/stats.xlsx
+++ b/codes/stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC19323B-0B82-45F0-A411-4D8A7D22A32B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7257F6-0CB7-46F3-813C-495E61A289BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="32">
   <si>
     <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22416,6 +22416,498 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="495650128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$244</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$243:$M$243</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$244:$M$244</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9266394961096701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5954057058169697E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13560577991848832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17895516858095592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19896257873286402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13634679510929973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.114116339384958E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5201926639496112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7788069655427936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6672841793256763E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3349388662467583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5273-4B0C-8EC6-75318230DBC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$243:$M$243</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$245:$M$245</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2597258243793997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7424972211930344E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11819192293442016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16598740274175622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20859577621341238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1526491293071508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10929974064468322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3727306409781401E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4086698777324932E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3734716561689515E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5273-4B0C-8EC6-75318230DBC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="296404920"/>
+        <c:axId val="296408440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="296404920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296408440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="296408440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296404920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26270,6 +26762,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors50.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -48563,6 +49095,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style50.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -54144,6 +55179,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>692</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>243006</xdr:colOff>
+      <xdr:row>701</xdr:row>
+      <xdr:rowOff>122660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="图片 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F31BB24-9AB4-4333-8B20-9149CD46C698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="121279920"/>
+          <a:ext cx="6666666" cy="1700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>707</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>29567</xdr:colOff>
+      <xdr:row>716</xdr:row>
+      <xdr:rowOff>135993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="图片 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B537C71-8012-45E0-B35D-B606D4507351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="123908820"/>
+          <a:ext cx="7306667" cy="1713333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -55179,6 +56302,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601067</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>135993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F2DCEA-A98C-4EBC-AE63-18C90599F29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="123908820"/>
+          <a:ext cx="7306667" cy="1713333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="图表 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B693537-781A-4665-910D-781A26ED749E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -55445,10 +56648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC690"/>
+  <dimension ref="A1:AC720"/>
   <sheetViews>
-    <sheetView topLeftCell="A666" workbookViewId="0">
-      <selection activeCell="A677" sqref="A677:Y690"/>
+    <sheetView topLeftCell="A693" workbookViewId="0">
+      <selection activeCell="A707" sqref="A707:Z720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -60655,6 +61858,256 @@
         <v>213</v>
       </c>
     </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B703" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G703" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H703" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I703" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J703" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K703" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L703" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M703" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1</v>
+      </c>
+      <c r="B704" s="1">
+        <v>52</v>
+      </c>
+      <c r="C704" s="1">
+        <v>110</v>
+      </c>
+      <c r="D704" s="1">
+        <v>205</v>
+      </c>
+      <c r="E704" s="1">
+        <v>366</v>
+      </c>
+      <c r="F704" s="1">
+        <v>483</v>
+      </c>
+      <c r="G704" s="1">
+        <v>537</v>
+      </c>
+      <c r="H704" s="1">
+        <v>368</v>
+      </c>
+      <c r="I704" s="1">
+        <v>219</v>
+      </c>
+      <c r="J704" s="1">
+        <v>122</v>
+      </c>
+      <c r="K704" s="1">
+        <v>75</v>
+      </c>
+      <c r="L704" s="1">
+        <v>45</v>
+      </c>
+      <c r="M704" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>0</v>
+      </c>
+      <c r="B705" s="1">
+        <v>0</v>
+      </c>
+      <c r="C705" s="1">
+        <v>9</v>
+      </c>
+      <c r="D705" s="1">
+        <v>28</v>
+      </c>
+      <c r="E705" s="1">
+        <v>133</v>
+      </c>
+      <c r="F705" s="1">
+        <v>322</v>
+      </c>
+      <c r="G705" s="1">
+        <v>464</v>
+      </c>
+      <c r="H705" s="1">
+        <v>565</v>
+      </c>
+      <c r="I705" s="1">
+        <v>421</v>
+      </c>
+      <c r="J705" s="1">
+        <v>274</v>
+      </c>
+      <c r="K705" s="1">
+        <v>176</v>
+      </c>
+      <c r="L705" s="1">
+        <v>97</v>
+      </c>
+      <c r="M705" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B718" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G718" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H718" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I718" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J718" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K718" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L718" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M718" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1</v>
+      </c>
+      <c r="B719" s="1">
+        <v>52</v>
+      </c>
+      <c r="C719" s="1">
+        <v>110</v>
+      </c>
+      <c r="D719" s="1">
+        <v>205</v>
+      </c>
+      <c r="E719" s="1">
+        <v>366</v>
+      </c>
+      <c r="F719" s="1">
+        <v>483</v>
+      </c>
+      <c r="G719" s="1">
+        <v>537</v>
+      </c>
+      <c r="H719" s="1">
+        <v>368</v>
+      </c>
+      <c r="I719" s="1">
+        <v>219</v>
+      </c>
+      <c r="J719" s="1">
+        <v>122</v>
+      </c>
+      <c r="K719" s="1">
+        <v>75</v>
+      </c>
+      <c r="L719" s="1">
+        <v>45</v>
+      </c>
+      <c r="M719" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>0</v>
+      </c>
+      <c r="B720" s="1">
+        <v>0</v>
+      </c>
+      <c r="C720" s="1">
+        <v>11</v>
+      </c>
+      <c r="D720" s="1">
+        <v>34</v>
+      </c>
+      <c r="E720" s="1">
+        <v>128</v>
+      </c>
+      <c r="F720" s="1">
+        <v>319</v>
+      </c>
+      <c r="G720" s="1">
+        <v>448</v>
+      </c>
+      <c r="H720" s="1">
+        <v>563</v>
+      </c>
+      <c r="I720" s="1">
+        <v>412</v>
+      </c>
+      <c r="J720" s="1">
+        <v>295</v>
+      </c>
+      <c r="K720" s="1">
+        <v>172</v>
+      </c>
+      <c r="L720" s="1">
+        <v>92</v>
+      </c>
+      <c r="M720" s="1">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60665,10 +62118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A7428-0272-4621-8266-47B00E14046B}">
-  <dimension ref="A1:N227"/>
+  <dimension ref="A1:N245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -63532,6 +64985,283 @@
         <v>7.8918117821415334E-2</v>
       </c>
     </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1</v>
+      </c>
+      <c r="B241" s="1">
+        <v>52</v>
+      </c>
+      <c r="C241" s="1">
+        <v>110</v>
+      </c>
+      <c r="D241" s="1">
+        <v>205</v>
+      </c>
+      <c r="E241" s="1">
+        <v>366</v>
+      </c>
+      <c r="F241" s="1">
+        <v>483</v>
+      </c>
+      <c r="G241" s="1">
+        <v>537</v>
+      </c>
+      <c r="H241" s="1">
+        <v>368</v>
+      </c>
+      <c r="I241" s="1">
+        <v>219</v>
+      </c>
+      <c r="J241" s="1">
+        <v>122</v>
+      </c>
+      <c r="K241" s="1">
+        <v>75</v>
+      </c>
+      <c r="L241" s="1">
+        <v>45</v>
+      </c>
+      <c r="M241" s="1">
+        <v>117</v>
+      </c>
+      <c r="N241">
+        <f>SUM(B241:M241)</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="1">
+        <v>0</v>
+      </c>
+      <c r="C242" s="1">
+        <v>11</v>
+      </c>
+      <c r="D242" s="1">
+        <v>34</v>
+      </c>
+      <c r="E242" s="1">
+        <v>128</v>
+      </c>
+      <c r="F242" s="1">
+        <v>319</v>
+      </c>
+      <c r="G242" s="1">
+        <v>448</v>
+      </c>
+      <c r="H242" s="1">
+        <v>563</v>
+      </c>
+      <c r="I242" s="1">
+        <v>412</v>
+      </c>
+      <c r="J242" s="1">
+        <v>295</v>
+      </c>
+      <c r="K242" s="1">
+        <v>172</v>
+      </c>
+      <c r="L242" s="1">
+        <v>92</v>
+      </c>
+      <c r="M242" s="1">
+        <v>226</v>
+      </c>
+      <c r="N242">
+        <f>N241</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="3">
+        <f>B241/N241</f>
+        <v>1.9266394961096701E-2</v>
+      </c>
+      <c r="C244" s="3">
+        <f>C241/N241</f>
+        <v>4.0755835494627642E-2</v>
+      </c>
+      <c r="D244" s="3">
+        <f>D241/N241</f>
+        <v>7.5954057058169697E-2</v>
+      </c>
+      <c r="E244" s="3">
+        <f>E241/N241</f>
+        <v>0.13560577991848832</v>
+      </c>
+      <c r="F244" s="3">
+        <f>F241/N241</f>
+        <v>0.17895516858095592</v>
+      </c>
+      <c r="G244" s="3">
+        <f>G241/N241</f>
+        <v>0.19896257873286402</v>
+      </c>
+      <c r="H244" s="3">
+        <f>H241/N241</f>
+        <v>0.13634679510929973</v>
+      </c>
+      <c r="I244" s="3">
+        <f>I241/N241</f>
+        <v>8.114116339384958E-2</v>
+      </c>
+      <c r="J244" s="3">
+        <f>J241/N241</f>
+        <v>4.5201926639496112E-2</v>
+      </c>
+      <c r="K244" s="3">
+        <f>K241/N241</f>
+        <v>2.7788069655427936E-2</v>
+      </c>
+      <c r="L244" s="3">
+        <f>L241/N241</f>
+        <v>1.6672841793256763E-2</v>
+      </c>
+      <c r="M244" s="3">
+        <f>M241/N241</f>
+        <v>4.3349388662467583E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" s="3">
+        <f>B242/N242</f>
+        <v>0</v>
+      </c>
+      <c r="C245" s="3">
+        <f>C242/N242</f>
+        <v>4.0755835494627642E-3</v>
+      </c>
+      <c r="D245" s="3">
+        <f>D242/N242</f>
+        <v>1.2597258243793997E-2</v>
+      </c>
+      <c r="E245" s="3">
+        <f>E242/N242</f>
+        <v>4.7424972211930344E-2</v>
+      </c>
+      <c r="F245" s="3">
+        <f>F242/N242</f>
+        <v>0.11819192293442016</v>
+      </c>
+      <c r="G245" s="3">
+        <f>G242/N242</f>
+        <v>0.16598740274175622</v>
+      </c>
+      <c r="H245" s="3">
+        <f>H242/N242</f>
+        <v>0.20859577621341238</v>
+      </c>
+      <c r="I245" s="3">
+        <f>I242/N242</f>
+        <v>0.1526491293071508</v>
+      </c>
+      <c r="J245" s="3">
+        <f>J242/N242</f>
+        <v>0.10929974064468322</v>
+      </c>
+      <c r="K245" s="3">
+        <f>K242/N242</f>
+        <v>6.3727306409781401E-2</v>
+      </c>
+      <c r="L245" s="3">
+        <f>L242/N242</f>
+        <v>3.4086698777324932E-2</v>
+      </c>
+      <c r="M245" s="3">
+        <f>M242/N242</f>
+        <v>8.3734716561689515E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/codes/stats.xlsx
+++ b/codes/stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7257F6-0CB7-46F3-813C-495E61A289BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EE0C8C-5629-4836-8995-83E4406FFD55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="33">
   <si>
     <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,9 @@
   <si>
     <t>7-14-24~【2018-2019.05.01】</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-14-24~【2018-2019.05.01】</t>
   </si>
 </sst>
 </file>
@@ -22908,6 +22911,498 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="296404920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$262</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$261:$M$261</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$262:$M$262</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9266394961096701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5954057058169697E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13560577991848832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17895516858095592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19896257873286402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13634679510929973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.114116339384958E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5201926639496112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7788069655427936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6672841793256763E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3349388662467583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A82B-4EF9-8C35-4DFED6712970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$263</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$261:$M$261</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$263:$M$263</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7050759540570581E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2226750648388292E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1126343090033345E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11745090774360874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17450907743608743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20155613190070396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14820303816228234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11152278621711745</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8914412745461284E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6680251945164874E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4475731752500921E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A82B-4EF9-8C35-4DFED6712970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="587795704"/>
+        <c:axId val="587801784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="587795704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587801784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587801784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587795704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26802,6 +27297,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors51.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -49598,6 +50133,509 @@
 </file>
 
 <file path=xl/charts/style50.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style51.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -55267,6 +56305,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>722</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>156234</xdr:colOff>
+      <xdr:row>731</xdr:row>
+      <xdr:rowOff>149327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="图片 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C18134F-0120-4F27-B313-2A9F7A7ED851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="126537720"/>
+          <a:ext cx="7433334" cy="1726667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -56382,6 +57464,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>118134</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>149327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E224179-37EF-425A-9558-71C096FD0248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="126537720"/>
+          <a:ext cx="7433334" cy="1726667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="图表 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE2EDF6-D151-491B-9457-34D9EE44CB38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -56648,10 +57810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC720"/>
+  <dimension ref="A1:AC735"/>
   <sheetViews>
-    <sheetView topLeftCell="A693" workbookViewId="0">
-      <selection activeCell="A707" sqref="A707:Z720"/>
+    <sheetView topLeftCell="A708" workbookViewId="0">
+      <selection activeCell="A722" sqref="A722:AA735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -61985,7 +63147,7 @@
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="718" spans="1:13" x14ac:dyDescent="0.25">
@@ -62106,6 +63268,131 @@
       </c>
       <c r="M720" s="1">
         <v>226</v>
+      </c>
+    </row>
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B733" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G733" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H733" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I733" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J733" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K733" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L733" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M733" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1</v>
+      </c>
+      <c r="B734" s="1">
+        <v>52</v>
+      </c>
+      <c r="C734" s="1">
+        <v>110</v>
+      </c>
+      <c r="D734" s="1">
+        <v>205</v>
+      </c>
+      <c r="E734" s="1">
+        <v>366</v>
+      </c>
+      <c r="F734" s="1">
+        <v>483</v>
+      </c>
+      <c r="G734" s="1">
+        <v>537</v>
+      </c>
+      <c r="H734" s="1">
+        <v>368</v>
+      </c>
+      <c r="I734" s="1">
+        <v>219</v>
+      </c>
+      <c r="J734" s="1">
+        <v>122</v>
+      </c>
+      <c r="K734" s="1">
+        <v>75</v>
+      </c>
+      <c r="L734" s="1">
+        <v>45</v>
+      </c>
+      <c r="M734" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>0</v>
+      </c>
+      <c r="B735" s="1">
+        <v>0</v>
+      </c>
+      <c r="C735" s="1">
+        <v>10</v>
+      </c>
+      <c r="D735" s="1">
+        <v>33</v>
+      </c>
+      <c r="E735" s="1">
+        <v>111</v>
+      </c>
+      <c r="F735" s="1">
+        <v>317</v>
+      </c>
+      <c r="G735" s="1">
+        <v>471</v>
+      </c>
+      <c r="H735" s="1">
+        <v>544</v>
+      </c>
+      <c r="I735" s="1">
+        <v>400</v>
+      </c>
+      <c r="J735" s="1">
+        <v>301</v>
+      </c>
+      <c r="K735" s="1">
+        <v>186</v>
+      </c>
+      <c r="L735" s="1">
+        <v>99</v>
+      </c>
+      <c r="M735" s="1">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -62118,10 +63405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A7428-0272-4621-8266-47B00E14046B}">
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261:M263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -65262,6 +66549,283 @@
         <v>8.3734716561689515E-2</v>
       </c>
     </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" s="1">
+        <v>52</v>
+      </c>
+      <c r="C259" s="1">
+        <v>110</v>
+      </c>
+      <c r="D259" s="1">
+        <v>205</v>
+      </c>
+      <c r="E259" s="1">
+        <v>366</v>
+      </c>
+      <c r="F259" s="1">
+        <v>483</v>
+      </c>
+      <c r="G259" s="1">
+        <v>537</v>
+      </c>
+      <c r="H259" s="1">
+        <v>368</v>
+      </c>
+      <c r="I259" s="1">
+        <v>219</v>
+      </c>
+      <c r="J259" s="1">
+        <v>122</v>
+      </c>
+      <c r="K259" s="1">
+        <v>75</v>
+      </c>
+      <c r="L259" s="1">
+        <v>45</v>
+      </c>
+      <c r="M259" s="1">
+        <v>117</v>
+      </c>
+      <c r="N259">
+        <f>SUM(B259:M259)</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" s="1">
+        <v>0</v>
+      </c>
+      <c r="C260" s="1">
+        <v>10</v>
+      </c>
+      <c r="D260" s="1">
+        <v>33</v>
+      </c>
+      <c r="E260" s="1">
+        <v>111</v>
+      </c>
+      <c r="F260" s="1">
+        <v>317</v>
+      </c>
+      <c r="G260" s="1">
+        <v>471</v>
+      </c>
+      <c r="H260" s="1">
+        <v>544</v>
+      </c>
+      <c r="I260" s="1">
+        <v>400</v>
+      </c>
+      <c r="J260" s="1">
+        <v>301</v>
+      </c>
+      <c r="K260" s="1">
+        <v>186</v>
+      </c>
+      <c r="L260" s="1">
+        <v>99</v>
+      </c>
+      <c r="M260" s="1">
+        <v>228</v>
+      </c>
+      <c r="N260">
+        <f>N259</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M261" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="3">
+        <f>B259/N259</f>
+        <v>1.9266394961096701E-2</v>
+      </c>
+      <c r="C262" s="3">
+        <f>C259/N259</f>
+        <v>4.0755835494627642E-2</v>
+      </c>
+      <c r="D262" s="3">
+        <f>D259/N259</f>
+        <v>7.5954057058169697E-2</v>
+      </c>
+      <c r="E262" s="3">
+        <f>E259/N259</f>
+        <v>0.13560577991848832</v>
+      </c>
+      <c r="F262" s="3">
+        <f>F259/N259</f>
+        <v>0.17895516858095592</v>
+      </c>
+      <c r="G262" s="3">
+        <f>G259/N259</f>
+        <v>0.19896257873286402</v>
+      </c>
+      <c r="H262" s="3">
+        <f>H259/N259</f>
+        <v>0.13634679510929973</v>
+      </c>
+      <c r="I262" s="3">
+        <f>I259/N259</f>
+        <v>8.114116339384958E-2</v>
+      </c>
+      <c r="J262" s="3">
+        <f>J259/N259</f>
+        <v>4.5201926639496112E-2</v>
+      </c>
+      <c r="K262" s="3">
+        <f>K259/N259</f>
+        <v>2.7788069655427936E-2</v>
+      </c>
+      <c r="L262" s="3">
+        <f>L259/N259</f>
+        <v>1.6672841793256763E-2</v>
+      </c>
+      <c r="M262" s="3">
+        <f>M259/N259</f>
+        <v>4.3349388662467583E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" s="3">
+        <f>B260/N260</f>
+        <v>0</v>
+      </c>
+      <c r="C263" s="3">
+        <f>C260/N260</f>
+        <v>3.7050759540570581E-3</v>
+      </c>
+      <c r="D263" s="3">
+        <f>D260/N260</f>
+        <v>1.2226750648388292E-2</v>
+      </c>
+      <c r="E263" s="3">
+        <f>E260/N260</f>
+        <v>4.1126343090033345E-2</v>
+      </c>
+      <c r="F263" s="3">
+        <f>F260/N260</f>
+        <v>0.11745090774360874</v>
+      </c>
+      <c r="G263" s="3">
+        <f>G260/N260</f>
+        <v>0.17450907743608743</v>
+      </c>
+      <c r="H263" s="3">
+        <f>H260/N260</f>
+        <v>0.20155613190070396</v>
+      </c>
+      <c r="I263" s="3">
+        <f>I260/N260</f>
+        <v>0.14820303816228234</v>
+      </c>
+      <c r="J263" s="3">
+        <f>J260/N260</f>
+        <v>0.11152278621711745</v>
+      </c>
+      <c r="K263" s="3">
+        <f>K260/N260</f>
+        <v>6.8914412745461284E-2</v>
+      </c>
+      <c r="L263" s="3">
+        <f>L260/N260</f>
+        <v>3.6680251945164874E-2</v>
+      </c>
+      <c r="M263" s="3">
+        <f>M260/N260</f>
+        <v>8.4475731752500921E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/codes/stats.xlsx
+++ b/codes/stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EE0C8C-5629-4836-8995-83E4406FFD55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD873AB-E2B4-4D1A-A3E3-C9A97D43CA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="34">
   <si>
     <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>7-14-24~【2018-2019.05.01】</t>
+  </si>
+  <si>
+    <t>3-7-14-24~【2018-2019.05.01】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -23403,6 +23407,498 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="587795704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$280</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$279:$M$279</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$280:$M$280</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9266394961096701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5954057058169697E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13560577991848832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17895516858095592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19896257873286402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13634679510929973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.114116339384958E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5201926639496112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7788069655427936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6672841793256763E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3349388662467583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F3B-4E17-A6D3-FA001962B454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$281</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$279:$M$279</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$281:$M$281</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5935531678399409E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1115227862171175E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5201926639496112E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11374583178955168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16005928121526491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21118932938125232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15672471285661357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10670618747684328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1507965913301219E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3719896257873286E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7806595035198226E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F3B-4E17-A6D3-FA001962B454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="650025976"/>
+        <c:axId val="650028856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="650025976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650028856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="650028856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650025976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27337,6 +27833,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors52.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -50636,6 +51172,509 @@
 </file>
 
 <file path=xl/charts/style51.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style52.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -56349,6 +57388,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>737</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>36233</xdr:colOff>
+      <xdr:row>746</xdr:row>
+      <xdr:rowOff>115994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="图片 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1A74AB-950A-4D44-B62C-4AB9799FF76C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="129166620"/>
+          <a:ext cx="7313333" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>752</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>241549</xdr:colOff>
+      <xdr:row>761</xdr:row>
+      <xdr:rowOff>98851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="图片 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280629D0-A151-4719-93BD-829D0F9174D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="131795521"/>
+          <a:ext cx="6909048" cy="1676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>767</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>225986</xdr:colOff>
+      <xdr:row>776</xdr:row>
+      <xdr:rowOff>68374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="图片 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B2ECD8-794B-455D-BEC9-2035E02362B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="134424420"/>
+          <a:ext cx="5674286" cy="1645714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -57544,6 +58715,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>607733</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>115994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4394A803-0794-429B-9CD5-837B8B574C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="129166620"/>
+          <a:ext cx="7313333" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="图表 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9B0612-C530-4293-BF01-4D68FB52C249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -57810,10 +59061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC735"/>
+  <dimension ref="A1:AC780"/>
   <sheetViews>
-    <sheetView topLeftCell="A708" workbookViewId="0">
-      <selection activeCell="A722" sqref="A722:AA735"/>
+    <sheetView topLeftCell="A726" workbookViewId="0">
+      <selection activeCell="A737" sqref="A737:AA750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -63395,6 +64646,381 @@
         <v>228</v>
       </c>
     </row>
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B748" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F748" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G748" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H748" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I748" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J748" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K748" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L748" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M748" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>1</v>
+      </c>
+      <c r="B749" s="1">
+        <v>52</v>
+      </c>
+      <c r="C749" s="1">
+        <v>110</v>
+      </c>
+      <c r="D749" s="1">
+        <v>205</v>
+      </c>
+      <c r="E749" s="1">
+        <v>366</v>
+      </c>
+      <c r="F749" s="1">
+        <v>483</v>
+      </c>
+      <c r="G749" s="1">
+        <v>537</v>
+      </c>
+      <c r="H749" s="1">
+        <v>368</v>
+      </c>
+      <c r="I749" s="1">
+        <v>219</v>
+      </c>
+      <c r="J749" s="1">
+        <v>122</v>
+      </c>
+      <c r="K749" s="1">
+        <v>75</v>
+      </c>
+      <c r="L749" s="1">
+        <v>45</v>
+      </c>
+      <c r="M749" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>0</v>
+      </c>
+      <c r="B750" s="1">
+        <v>0</v>
+      </c>
+      <c r="C750" s="1">
+        <v>7</v>
+      </c>
+      <c r="D750" s="1">
+        <v>30</v>
+      </c>
+      <c r="E750" s="1">
+        <v>122</v>
+      </c>
+      <c r="F750" s="1">
+        <v>307</v>
+      </c>
+      <c r="G750" s="1">
+        <v>432</v>
+      </c>
+      <c r="H750" s="1">
+        <v>570</v>
+      </c>
+      <c r="I750" s="1">
+        <v>423</v>
+      </c>
+      <c r="J750" s="1">
+        <v>288</v>
+      </c>
+      <c r="K750" s="1">
+        <v>193</v>
+      </c>
+      <c r="L750" s="1">
+        <v>118</v>
+      </c>
+      <c r="M750" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B763" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F763" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G763" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H763" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I763" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J763" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K763" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L763" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M763" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>1</v>
+      </c>
+      <c r="B764" s="1">
+        <v>52</v>
+      </c>
+      <c r="C764" s="1">
+        <v>110</v>
+      </c>
+      <c r="D764" s="1">
+        <v>205</v>
+      </c>
+      <c r="E764" s="1">
+        <v>366</v>
+      </c>
+      <c r="F764" s="1">
+        <v>483</v>
+      </c>
+      <c r="G764" s="1">
+        <v>537</v>
+      </c>
+      <c r="H764" s="1">
+        <v>368</v>
+      </c>
+      <c r="I764" s="1">
+        <v>219</v>
+      </c>
+      <c r="J764" s="1">
+        <v>122</v>
+      </c>
+      <c r="K764" s="1">
+        <v>75</v>
+      </c>
+      <c r="L764" s="1">
+        <v>45</v>
+      </c>
+      <c r="M764" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>0</v>
+      </c>
+      <c r="B765" s="1">
+        <v>0</v>
+      </c>
+      <c r="C765" s="1">
+        <v>10</v>
+      </c>
+      <c r="D765" s="1">
+        <v>35</v>
+      </c>
+      <c r="E765" s="1">
+        <v>125</v>
+      </c>
+      <c r="F765" s="1">
+        <v>323</v>
+      </c>
+      <c r="G765" s="1">
+        <v>463</v>
+      </c>
+      <c r="H765" s="1">
+        <v>555</v>
+      </c>
+      <c r="I765" s="1">
+        <v>386</v>
+      </c>
+      <c r="J765" s="1">
+        <v>294</v>
+      </c>
+      <c r="K765" s="1">
+        <v>178</v>
+      </c>
+      <c r="L765" s="1">
+        <v>107</v>
+      </c>
+      <c r="M765" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B778" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F778" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G778" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H778" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I778" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J778" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K778" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L778" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M778" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>1</v>
+      </c>
+      <c r="B779" s="1">
+        <v>52</v>
+      </c>
+      <c r="C779" s="1">
+        <v>110</v>
+      </c>
+      <c r="D779" s="1">
+        <v>205</v>
+      </c>
+      <c r="E779" s="1">
+        <v>366</v>
+      </c>
+      <c r="F779" s="1">
+        <v>483</v>
+      </c>
+      <c r="G779" s="1">
+        <v>537</v>
+      </c>
+      <c r="H779" s="1">
+        <v>368</v>
+      </c>
+      <c r="I779" s="1">
+        <v>219</v>
+      </c>
+      <c r="J779" s="1">
+        <v>122</v>
+      </c>
+      <c r="K779" s="1">
+        <v>75</v>
+      </c>
+      <c r="L779" s="1">
+        <v>45</v>
+      </c>
+      <c r="M779" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>0</v>
+      </c>
+      <c r="B780" s="1">
+        <v>0</v>
+      </c>
+      <c r="C780" s="1">
+        <v>7</v>
+      </c>
+      <c r="D780" s="1">
+        <v>31</v>
+      </c>
+      <c r="E780" s="1">
+        <v>138</v>
+      </c>
+      <c r="F780" s="1">
+        <v>311</v>
+      </c>
+      <c r="G780" s="1">
+        <v>484</v>
+      </c>
+      <c r="H780" s="1">
+        <v>540</v>
+      </c>
+      <c r="I780" s="1">
+        <v>411</v>
+      </c>
+      <c r="J780" s="1">
+        <v>278</v>
+      </c>
+      <c r="K780" s="1">
+        <v>187</v>
+      </c>
+      <c r="L780" s="1">
+        <v>99</v>
+      </c>
+      <c r="M780" s="1">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63405,10 +65031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A7428-0272-4621-8266-47B00E14046B}">
-  <dimension ref="A1:N263"/>
+  <dimension ref="A1:N281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261:M263"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="M278" sqref="M278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -66826,6 +68452,283 @@
         <v>8.4475731752500921E-2</v>
       </c>
     </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" s="1">
+        <v>52</v>
+      </c>
+      <c r="C277" s="1">
+        <v>110</v>
+      </c>
+      <c r="D277" s="1">
+        <v>205</v>
+      </c>
+      <c r="E277" s="1">
+        <v>366</v>
+      </c>
+      <c r="F277" s="1">
+        <v>483</v>
+      </c>
+      <c r="G277" s="1">
+        <v>537</v>
+      </c>
+      <c r="H277" s="1">
+        <v>368</v>
+      </c>
+      <c r="I277" s="1">
+        <v>219</v>
+      </c>
+      <c r="J277" s="1">
+        <v>122</v>
+      </c>
+      <c r="K277" s="1">
+        <v>75</v>
+      </c>
+      <c r="L277" s="1">
+        <v>45</v>
+      </c>
+      <c r="M277" s="1">
+        <v>117</v>
+      </c>
+      <c r="N277">
+        <f>SUM(B277:M277)</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" s="1">
+        <v>0</v>
+      </c>
+      <c r="C278" s="1">
+        <v>7</v>
+      </c>
+      <c r="D278" s="1">
+        <v>30</v>
+      </c>
+      <c r="E278" s="1">
+        <v>122</v>
+      </c>
+      <c r="F278" s="1">
+        <v>307</v>
+      </c>
+      <c r="G278" s="1">
+        <v>432</v>
+      </c>
+      <c r="H278" s="1">
+        <v>570</v>
+      </c>
+      <c r="I278" s="1">
+        <v>423</v>
+      </c>
+      <c r="J278" s="1">
+        <v>288</v>
+      </c>
+      <c r="K278" s="1">
+        <v>193</v>
+      </c>
+      <c r="L278" s="1">
+        <v>118</v>
+      </c>
+      <c r="M278" s="1">
+        <v>210</v>
+      </c>
+      <c r="N278">
+        <f>N277</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+      <c r="B280" s="3">
+        <f>B277/N277</f>
+        <v>1.9266394961096701E-2</v>
+      </c>
+      <c r="C280" s="3">
+        <f>C277/N277</f>
+        <v>4.0755835494627642E-2</v>
+      </c>
+      <c r="D280" s="3">
+        <f>D277/N277</f>
+        <v>7.5954057058169697E-2</v>
+      </c>
+      <c r="E280" s="3">
+        <f>E277/N277</f>
+        <v>0.13560577991848832</v>
+      </c>
+      <c r="F280" s="3">
+        <f>F277/N277</f>
+        <v>0.17895516858095592</v>
+      </c>
+      <c r="G280" s="3">
+        <f>G277/N277</f>
+        <v>0.19896257873286402</v>
+      </c>
+      <c r="H280" s="3">
+        <f>H277/N277</f>
+        <v>0.13634679510929973</v>
+      </c>
+      <c r="I280" s="3">
+        <f>I277/N277</f>
+        <v>8.114116339384958E-2</v>
+      </c>
+      <c r="J280" s="3">
+        <f>J277/N277</f>
+        <v>4.5201926639496112E-2</v>
+      </c>
+      <c r="K280" s="3">
+        <f>K277/N277</f>
+        <v>2.7788069655427936E-2</v>
+      </c>
+      <c r="L280" s="3">
+        <f>L277/N277</f>
+        <v>1.6672841793256763E-2</v>
+      </c>
+      <c r="M280" s="3">
+        <f>M277/N277</f>
+        <v>4.3349388662467583E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="3">
+        <f>B278/N278</f>
+        <v>0</v>
+      </c>
+      <c r="C281" s="3">
+        <f>C278/N278</f>
+        <v>2.5935531678399409E-3</v>
+      </c>
+      <c r="D281" s="3">
+        <f>D278/N278</f>
+        <v>1.1115227862171175E-2</v>
+      </c>
+      <c r="E281" s="3">
+        <f>E278/N278</f>
+        <v>4.5201926639496112E-2</v>
+      </c>
+      <c r="F281" s="3">
+        <f>F278/N278</f>
+        <v>0.11374583178955168</v>
+      </c>
+      <c r="G281" s="3">
+        <f>G278/N278</f>
+        <v>0.16005928121526491</v>
+      </c>
+      <c r="H281" s="3">
+        <f>H278/N278</f>
+        <v>0.21118932938125232</v>
+      </c>
+      <c r="I281" s="3">
+        <f>I278/N278</f>
+        <v>0.15672471285661357</v>
+      </c>
+      <c r="J281" s="3">
+        <f>J278/N278</f>
+        <v>0.10670618747684328</v>
+      </c>
+      <c r="K281" s="3">
+        <f>K278/N278</f>
+        <v>7.1507965913301219E-2</v>
+      </c>
+      <c r="L281" s="3">
+        <f>L278/N278</f>
+        <v>4.3719896257873286E-2</v>
+      </c>
+      <c r="M281" s="3">
+        <f>M278/N278</f>
+        <v>7.7806595035198226E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/codes/stats.xlsx
+++ b/codes/stats.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD873AB-E2B4-4D1A-A3E3-C9A97D43CA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330FCE25-9848-40AF-8DB6-28084B3675D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="35">
   <si>
     <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>3-7-14-24~【2018-2019.05.01】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-14-24~【2018-2019.05.02】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57520,6 +57524,397 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>782</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7313333" cy="1693334"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="图片 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5C4332-CE58-4A4A-B266-E065FED9DE06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="129166620"/>
+          <a:ext cx="7313333" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>797</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>593300</xdr:colOff>
+      <xdr:row>806</xdr:row>
+      <xdr:rowOff>109328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="图片 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D028EC00-8A08-436D-9787-BF6580FE699D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="139682221"/>
+          <a:ext cx="8480000" cy="1686667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>812</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>10367</xdr:colOff>
+      <xdr:row>821</xdr:row>
+      <xdr:rowOff>115994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="图片 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5330767-3E94-4C15-8CD0-84F2A23D534A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="142311120"/>
+          <a:ext cx="8506667" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>827</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>70367</xdr:colOff>
+      <xdr:row>836</xdr:row>
+      <xdr:rowOff>115994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="图片 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478801FE-E5ED-467D-92B8-AF933C2D40D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="144940020"/>
+          <a:ext cx="8566667" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>842</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>13300</xdr:colOff>
+      <xdr:row>851</xdr:row>
+      <xdr:rowOff>89326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="图片 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23CC2ED-9B35-4DE0-A08E-7EBFC18AD05C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="147568920"/>
+          <a:ext cx="7900000" cy="1666666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>857</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>185358</xdr:colOff>
+      <xdr:row>867</xdr:row>
+      <xdr:rowOff>30258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="图片 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640E9FF8-F98B-49B1-8AD3-0735D1ABC163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="150197821"/>
+          <a:ext cx="6852857" cy="1782857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>872</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>272024</xdr:colOff>
+      <xdr:row>882</xdr:row>
+      <xdr:rowOff>24066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="图片 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440B2D6C-2206-4E2E-AB0F-19693F25E9D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="152826720"/>
+          <a:ext cx="6939524" cy="1776666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>887</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>69568</xdr:colOff>
+      <xdr:row>896</xdr:row>
+      <xdr:rowOff>95994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="图片 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BC19F9-0B01-40D1-BA0B-588C665B608A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="155455621"/>
+          <a:ext cx="7346667" cy="1673333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>902</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>62900</xdr:colOff>
+      <xdr:row>911</xdr:row>
+      <xdr:rowOff>115994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="图片 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917EA24F-959B-4E91-ACF5-8B815A719DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="158084520"/>
+          <a:ext cx="7340000" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -59061,10 +59456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC780"/>
+  <dimension ref="A1:AC915"/>
   <sheetViews>
-    <sheetView topLeftCell="A726" workbookViewId="0">
-      <selection activeCell="A737" sqref="A737:AA750"/>
+    <sheetView topLeftCell="A906" workbookViewId="0">
+      <selection activeCell="A917" sqref="A917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -65021,6 +65416,1131 @@
         <v>214</v>
       </c>
     </row>
+    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B793" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F793" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G793" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H793" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I793" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J793" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K793" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L793" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M793" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>1</v>
+      </c>
+      <c r="B794" s="1">
+        <v>52</v>
+      </c>
+      <c r="C794" s="1">
+        <v>110</v>
+      </c>
+      <c r="D794" s="1">
+        <v>205</v>
+      </c>
+      <c r="E794" s="1">
+        <v>366</v>
+      </c>
+      <c r="F794" s="1">
+        <v>483</v>
+      </c>
+      <c r="G794" s="1">
+        <v>537</v>
+      </c>
+      <c r="H794" s="1">
+        <v>368</v>
+      </c>
+      <c r="I794" s="1">
+        <v>219</v>
+      </c>
+      <c r="J794" s="1">
+        <v>122</v>
+      </c>
+      <c r="K794" s="1">
+        <v>75</v>
+      </c>
+      <c r="L794" s="1">
+        <v>45</v>
+      </c>
+      <c r="M794" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>0</v>
+      </c>
+      <c r="B795" s="1">
+        <v>0</v>
+      </c>
+      <c r="C795" s="1">
+        <v>7</v>
+      </c>
+      <c r="D795" s="1">
+        <v>30</v>
+      </c>
+      <c r="E795" s="1">
+        <v>122</v>
+      </c>
+      <c r="F795" s="1">
+        <v>307</v>
+      </c>
+      <c r="G795" s="1">
+        <v>432</v>
+      </c>
+      <c r="H795" s="1">
+        <v>570</v>
+      </c>
+      <c r="I795" s="1">
+        <v>423</v>
+      </c>
+      <c r="J795" s="1">
+        <v>288</v>
+      </c>
+      <c r="K795" s="1">
+        <v>193</v>
+      </c>
+      <c r="L795" s="1">
+        <v>118</v>
+      </c>
+      <c r="M795" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B808" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F808" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G808" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H808" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I808" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J808" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K808" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L808" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M808" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>1</v>
+      </c>
+      <c r="B809" s="1">
+        <v>52</v>
+      </c>
+      <c r="C809" s="1">
+        <v>110</v>
+      </c>
+      <c r="D809" s="1">
+        <v>205</v>
+      </c>
+      <c r="E809" s="1">
+        <v>366</v>
+      </c>
+      <c r="F809" s="1">
+        <v>483</v>
+      </c>
+      <c r="G809" s="1">
+        <v>537</v>
+      </c>
+      <c r="H809" s="1">
+        <v>368</v>
+      </c>
+      <c r="I809" s="1">
+        <v>219</v>
+      </c>
+      <c r="J809" s="1">
+        <v>122</v>
+      </c>
+      <c r="K809" s="1">
+        <v>75</v>
+      </c>
+      <c r="L809" s="1">
+        <v>45</v>
+      </c>
+      <c r="M809" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>0</v>
+      </c>
+      <c r="B810" s="1">
+        <v>0</v>
+      </c>
+      <c r="C810" s="1">
+        <v>11</v>
+      </c>
+      <c r="D810" s="1">
+        <v>35</v>
+      </c>
+      <c r="E810" s="1">
+        <v>128</v>
+      </c>
+      <c r="F810" s="1">
+        <v>321</v>
+      </c>
+      <c r="G810" s="1">
+        <v>456</v>
+      </c>
+      <c r="H810" s="1">
+        <v>561</v>
+      </c>
+      <c r="I810" s="1">
+        <v>408</v>
+      </c>
+      <c r="J810" s="1">
+        <v>297</v>
+      </c>
+      <c r="K810" s="1">
+        <v>175</v>
+      </c>
+      <c r="L810" s="1">
+        <v>94</v>
+      </c>
+      <c r="M810" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B823" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F823" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G823" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H823" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I823" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J823" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K823" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L823" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M823" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>1</v>
+      </c>
+      <c r="B824" s="1">
+        <v>52</v>
+      </c>
+      <c r="C824" s="1">
+        <v>110</v>
+      </c>
+      <c r="D824" s="1">
+        <v>205</v>
+      </c>
+      <c r="E824" s="1">
+        <v>366</v>
+      </c>
+      <c r="F824" s="1">
+        <v>483</v>
+      </c>
+      <c r="G824" s="1">
+        <v>537</v>
+      </c>
+      <c r="H824" s="1">
+        <v>368</v>
+      </c>
+      <c r="I824" s="1">
+        <v>219</v>
+      </c>
+      <c r="J824" s="1">
+        <v>122</v>
+      </c>
+      <c r="K824" s="1">
+        <v>75</v>
+      </c>
+      <c r="L824" s="1">
+        <v>45</v>
+      </c>
+      <c r="M824" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>0</v>
+      </c>
+      <c r="B825" s="1">
+        <v>0</v>
+      </c>
+      <c r="C825" s="1">
+        <v>9</v>
+      </c>
+      <c r="D825" s="1">
+        <v>36</v>
+      </c>
+      <c r="E825" s="1">
+        <v>127</v>
+      </c>
+      <c r="F825" s="1">
+        <v>319</v>
+      </c>
+      <c r="G825" s="1">
+        <v>452</v>
+      </c>
+      <c r="H825" s="1">
+        <v>556</v>
+      </c>
+      <c r="I825" s="1">
+        <v>422</v>
+      </c>
+      <c r="J825" s="1">
+        <v>286</v>
+      </c>
+      <c r="K825" s="1">
+        <v>172</v>
+      </c>
+      <c r="L825" s="1">
+        <v>105</v>
+      </c>
+      <c r="M825" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B838" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F838" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G838" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H838" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I838" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J838" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K838" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L838" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M838" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>1</v>
+      </c>
+      <c r="B839" s="1">
+        <v>52</v>
+      </c>
+      <c r="C839" s="1">
+        <v>110</v>
+      </c>
+      <c r="D839" s="1">
+        <v>205</v>
+      </c>
+      <c r="E839" s="1">
+        <v>366</v>
+      </c>
+      <c r="F839" s="1">
+        <v>483</v>
+      </c>
+      <c r="G839" s="1">
+        <v>537</v>
+      </c>
+      <c r="H839" s="1">
+        <v>368</v>
+      </c>
+      <c r="I839" s="1">
+        <v>219</v>
+      </c>
+      <c r="J839" s="1">
+        <v>122</v>
+      </c>
+      <c r="K839" s="1">
+        <v>75</v>
+      </c>
+      <c r="L839" s="1">
+        <v>45</v>
+      </c>
+      <c r="M839" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>0</v>
+      </c>
+      <c r="B840" s="1">
+        <v>0</v>
+      </c>
+      <c r="C840" s="1">
+        <v>8</v>
+      </c>
+      <c r="D840" s="1">
+        <v>37</v>
+      </c>
+      <c r="E840" s="1">
+        <v>116</v>
+      </c>
+      <c r="F840" s="1">
+        <v>324</v>
+      </c>
+      <c r="G840" s="1">
+        <v>447</v>
+      </c>
+      <c r="H840" s="1">
+        <v>546</v>
+      </c>
+      <c r="I840" s="1">
+        <v>430</v>
+      </c>
+      <c r="J840" s="1">
+        <v>300</v>
+      </c>
+      <c r="K840" s="1">
+        <v>174</v>
+      </c>
+      <c r="L840" s="1">
+        <v>110</v>
+      </c>
+      <c r="M840" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B853" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G853" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H853" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I853" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J853" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K853" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L853" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M853" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>1</v>
+      </c>
+      <c r="B854" s="1">
+        <v>52</v>
+      </c>
+      <c r="C854" s="1">
+        <v>110</v>
+      </c>
+      <c r="D854" s="1">
+        <v>205</v>
+      </c>
+      <c r="E854" s="1">
+        <v>366</v>
+      </c>
+      <c r="F854" s="1">
+        <v>483</v>
+      </c>
+      <c r="G854" s="1">
+        <v>537</v>
+      </c>
+      <c r="H854" s="1">
+        <v>368</v>
+      </c>
+      <c r="I854" s="1">
+        <v>219</v>
+      </c>
+      <c r="J854" s="1">
+        <v>122</v>
+      </c>
+      <c r="K854" s="1">
+        <v>75</v>
+      </c>
+      <c r="L854" s="1">
+        <v>45</v>
+      </c>
+      <c r="M854" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>0</v>
+      </c>
+      <c r="B855" s="1">
+        <v>0</v>
+      </c>
+      <c r="C855" s="1">
+        <v>6</v>
+      </c>
+      <c r="D855" s="1">
+        <v>31</v>
+      </c>
+      <c r="E855" s="1">
+        <v>115</v>
+      </c>
+      <c r="F855" s="1">
+        <v>317</v>
+      </c>
+      <c r="G855" s="1">
+        <v>422</v>
+      </c>
+      <c r="H855" s="1">
+        <v>563</v>
+      </c>
+      <c r="I855" s="1">
+        <v>437</v>
+      </c>
+      <c r="J855" s="1">
+        <v>295</v>
+      </c>
+      <c r="K855" s="1">
+        <v>191</v>
+      </c>
+      <c r="L855" s="1">
+        <v>115</v>
+      </c>
+      <c r="M855" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B868" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F868" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G868" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H868" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I868" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J868" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K868" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L868" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M868" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>1</v>
+      </c>
+      <c r="B869" s="1">
+        <v>52</v>
+      </c>
+      <c r="C869" s="1">
+        <v>110</v>
+      </c>
+      <c r="D869" s="1">
+        <v>205</v>
+      </c>
+      <c r="E869" s="1">
+        <v>366</v>
+      </c>
+      <c r="F869" s="1">
+        <v>483</v>
+      </c>
+      <c r="G869" s="1">
+        <v>537</v>
+      </c>
+      <c r="H869" s="1">
+        <v>368</v>
+      </c>
+      <c r="I869" s="1">
+        <v>219</v>
+      </c>
+      <c r="J869" s="1">
+        <v>122</v>
+      </c>
+      <c r="K869" s="1">
+        <v>75</v>
+      </c>
+      <c r="L869" s="1">
+        <v>45</v>
+      </c>
+      <c r="M869" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>0</v>
+      </c>
+      <c r="B870" s="1">
+        <v>0</v>
+      </c>
+      <c r="C870" s="1">
+        <v>5</v>
+      </c>
+      <c r="D870" s="1">
+        <v>30</v>
+      </c>
+      <c r="E870" s="1">
+        <v>119</v>
+      </c>
+      <c r="F870" s="1">
+        <v>317</v>
+      </c>
+      <c r="G870" s="1">
+        <v>441</v>
+      </c>
+      <c r="H870" s="1">
+        <v>578</v>
+      </c>
+      <c r="I870" s="1">
+        <v>417</v>
+      </c>
+      <c r="J870" s="1">
+        <v>295</v>
+      </c>
+      <c r="K870" s="1">
+        <v>189</v>
+      </c>
+      <c r="L870" s="1">
+        <v>113</v>
+      </c>
+      <c r="M870" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B883" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G883" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H883" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I883" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J883" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K883" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L883" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M883" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>1</v>
+      </c>
+      <c r="B884" s="1">
+        <v>52</v>
+      </c>
+      <c r="C884" s="1">
+        <v>110</v>
+      </c>
+      <c r="D884" s="1">
+        <v>205</v>
+      </c>
+      <c r="E884" s="1">
+        <v>366</v>
+      </c>
+      <c r="F884" s="1">
+        <v>483</v>
+      </c>
+      <c r="G884" s="1">
+        <v>537</v>
+      </c>
+      <c r="H884" s="1">
+        <v>368</v>
+      </c>
+      <c r="I884" s="1">
+        <v>219</v>
+      </c>
+      <c r="J884" s="1">
+        <v>122</v>
+      </c>
+      <c r="K884" s="1">
+        <v>75</v>
+      </c>
+      <c r="L884" s="1">
+        <v>45</v>
+      </c>
+      <c r="M884" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>0</v>
+      </c>
+      <c r="B885" s="1">
+        <v>0</v>
+      </c>
+      <c r="C885" s="1">
+        <v>6</v>
+      </c>
+      <c r="D885" s="1">
+        <v>27</v>
+      </c>
+      <c r="E885" s="1">
+        <v>124</v>
+      </c>
+      <c r="F885" s="1">
+        <v>312</v>
+      </c>
+      <c r="G885" s="1">
+        <v>434</v>
+      </c>
+      <c r="H885" s="1">
+        <v>573</v>
+      </c>
+      <c r="I885" s="1">
+        <v>425</v>
+      </c>
+      <c r="J885" s="1">
+        <v>287</v>
+      </c>
+      <c r="K885" s="1">
+        <v>192</v>
+      </c>
+      <c r="L885" s="1">
+        <v>119</v>
+      </c>
+      <c r="M885" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B898" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F898" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G898" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H898" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I898" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J898" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K898" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L898" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M898" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>1</v>
+      </c>
+      <c r="B899" s="1">
+        <v>52</v>
+      </c>
+      <c r="C899" s="1">
+        <v>110</v>
+      </c>
+      <c r="D899" s="1">
+        <v>205</v>
+      </c>
+      <c r="E899" s="1">
+        <v>366</v>
+      </c>
+      <c r="F899" s="1">
+        <v>483</v>
+      </c>
+      <c r="G899" s="1">
+        <v>537</v>
+      </c>
+      <c r="H899" s="1">
+        <v>368</v>
+      </c>
+      <c r="I899" s="1">
+        <v>219</v>
+      </c>
+      <c r="J899" s="1">
+        <v>122</v>
+      </c>
+      <c r="K899" s="1">
+        <v>75</v>
+      </c>
+      <c r="L899" s="1">
+        <v>45</v>
+      </c>
+      <c r="M899" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>0</v>
+      </c>
+      <c r="B900" s="1">
+        <v>0</v>
+      </c>
+      <c r="C900" s="1">
+        <v>7</v>
+      </c>
+      <c r="D900" s="1">
+        <v>30</v>
+      </c>
+      <c r="E900" s="1">
+        <v>122</v>
+      </c>
+      <c r="F900" s="1">
+        <v>307</v>
+      </c>
+      <c r="G900" s="1">
+        <v>432</v>
+      </c>
+      <c r="H900" s="1">
+        <v>570</v>
+      </c>
+      <c r="I900" s="1">
+        <v>423</v>
+      </c>
+      <c r="J900" s="1">
+        <v>288</v>
+      </c>
+      <c r="K900" s="1">
+        <v>193</v>
+      </c>
+      <c r="L900" s="1">
+        <v>118</v>
+      </c>
+      <c r="M900" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="913" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B913" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E913" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F913" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G913" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H913" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I913" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J913" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K913" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L913" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M913" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="914" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>1</v>
+      </c>
+      <c r="B914" s="1">
+        <v>52</v>
+      </c>
+      <c r="C914" s="1">
+        <v>110</v>
+      </c>
+      <c r="D914" s="1">
+        <v>205</v>
+      </c>
+      <c r="E914" s="1">
+        <v>366</v>
+      </c>
+      <c r="F914" s="1">
+        <v>483</v>
+      </c>
+      <c r="G914" s="1">
+        <v>537</v>
+      </c>
+      <c r="H914" s="1">
+        <v>368</v>
+      </c>
+      <c r="I914" s="1">
+        <v>219</v>
+      </c>
+      <c r="J914" s="1">
+        <v>122</v>
+      </c>
+      <c r="K914" s="1">
+        <v>75</v>
+      </c>
+      <c r="L914" s="1">
+        <v>45</v>
+      </c>
+      <c r="M914" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="915" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>0</v>
+      </c>
+      <c r="B915" s="1">
+        <v>0</v>
+      </c>
+      <c r="C915" s="1">
+        <v>8</v>
+      </c>
+      <c r="D915" s="1">
+        <v>27</v>
+      </c>
+      <c r="E915" s="1">
+        <v>134</v>
+      </c>
+      <c r="F915" s="1">
+        <v>300</v>
+      </c>
+      <c r="G915" s="1">
+        <v>431</v>
+      </c>
+      <c r="H915" s="1">
+        <v>563</v>
+      </c>
+      <c r="I915" s="1">
+        <v>425</v>
+      </c>
+      <c r="J915" s="1">
+        <v>294</v>
+      </c>
+      <c r="K915" s="1">
+        <v>187</v>
+      </c>
+      <c r="L915" s="1">
+        <v>121</v>
+      </c>
+      <c r="M915" s="1">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -65033,8 +66553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A7428-0272-4621-8266-47B00E14046B}">
   <dimension ref="A1:N281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="M278" sqref="M278"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A284" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/codes/stats.xlsx
+++ b/codes/stats.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330FCE25-9848-40AF-8DB6-28084B3675D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B279199D-7DD9-4FF6-A105-5850D58F100A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="35">
   <si>
     <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57915,6 +57915,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>917</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>140180</xdr:colOff>
+      <xdr:row>927</xdr:row>
+      <xdr:rowOff>24544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="图片 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD888E11-FC23-4D2C-B403-3681BEF83BCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="160713421"/>
+          <a:ext cx="6320000" cy="1777143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -59456,10 +59500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC915"/>
+  <dimension ref="A1:AC930"/>
   <sheetViews>
-    <sheetView topLeftCell="A906" workbookViewId="0">
-      <selection activeCell="A917" sqref="A917"/>
+    <sheetView tabSelected="1" topLeftCell="A898" workbookViewId="0">
+      <selection activeCell="A931" sqref="A931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -66541,6 +66585,131 @@
         <v>210</v>
       </c>
     </row>
+    <row r="917" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="928" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B928" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F928" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G928" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H928" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I928" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J928" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K928" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L928" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M928" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="929" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>1</v>
+      </c>
+      <c r="B929" s="1">
+        <v>52</v>
+      </c>
+      <c r="C929" s="1">
+        <v>110</v>
+      </c>
+      <c r="D929" s="1">
+        <v>205</v>
+      </c>
+      <c r="E929" s="1">
+        <v>366</v>
+      </c>
+      <c r="F929" s="1">
+        <v>483</v>
+      </c>
+      <c r="G929" s="1">
+        <v>537</v>
+      </c>
+      <c r="H929" s="1">
+        <v>368</v>
+      </c>
+      <c r="I929" s="1">
+        <v>219</v>
+      </c>
+      <c r="J929" s="1">
+        <v>122</v>
+      </c>
+      <c r="K929" s="1">
+        <v>75</v>
+      </c>
+      <c r="L929" s="1">
+        <v>45</v>
+      </c>
+      <c r="M929" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="930" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>0</v>
+      </c>
+      <c r="B930" s="1">
+        <v>0</v>
+      </c>
+      <c r="C930" s="1">
+        <v>12</v>
+      </c>
+      <c r="D930" s="1">
+        <v>33</v>
+      </c>
+      <c r="E930" s="1">
+        <v>140</v>
+      </c>
+      <c r="F930" s="1">
+        <v>316</v>
+      </c>
+      <c r="G930" s="1">
+        <v>457</v>
+      </c>
+      <c r="H930" s="1">
+        <v>535</v>
+      </c>
+      <c r="I930" s="1">
+        <v>406</v>
+      </c>
+      <c r="J930" s="1">
+        <v>294</v>
+      </c>
+      <c r="K930" s="1">
+        <v>160</v>
+      </c>
+      <c r="L930" s="1">
+        <v>111</v>
+      </c>
+      <c r="M930" s="1">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66553,7 +66722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A7428-0272-4621-8266-47B00E14046B}">
   <dimension ref="A1:N281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+    <sheetView topLeftCell="A250" workbookViewId="0">
       <selection activeCell="A284" sqref="A284"/>
     </sheetView>
   </sheetViews>

--- a/codes/stats.xlsx
+++ b/codes/stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B279199D-7DD9-4FF6-A105-5850D58F100A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD5B2DC-51D6-4F2B-807B-A5B0C680F70A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="35">
   <si>
     <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57959,6 +57959,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>932</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>6634</xdr:colOff>
+      <xdr:row>941</xdr:row>
+      <xdr:rowOff>55993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="图片 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4A96A8-ABEA-4363-B43E-2E4F8D9BC93C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="163342320"/>
+          <a:ext cx="7893333" cy="1633333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -59500,10 +59544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC930"/>
+  <dimension ref="A1:AC945"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A898" workbookViewId="0">
-      <selection activeCell="A931" sqref="A931"/>
+    <sheetView tabSelected="1" topLeftCell="A917" workbookViewId="0">
+      <selection activeCell="A947" sqref="A947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -66710,6 +66754,131 @@
         <v>236</v>
       </c>
     </row>
+    <row r="932" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B943" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F943" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G943" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H943" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I943" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J943" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K943" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L943" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M943" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>1</v>
+      </c>
+      <c r="B944" s="1">
+        <v>52</v>
+      </c>
+      <c r="C944" s="1">
+        <v>110</v>
+      </c>
+      <c r="D944" s="1">
+        <v>205</v>
+      </c>
+      <c r="E944" s="1">
+        <v>366</v>
+      </c>
+      <c r="F944" s="1">
+        <v>483</v>
+      </c>
+      <c r="G944" s="1">
+        <v>537</v>
+      </c>
+      <c r="H944" s="1">
+        <v>368</v>
+      </c>
+      <c r="I944" s="1">
+        <v>219</v>
+      </c>
+      <c r="J944" s="1">
+        <v>122</v>
+      </c>
+      <c r="K944" s="1">
+        <v>75</v>
+      </c>
+      <c r="L944" s="1">
+        <v>45</v>
+      </c>
+      <c r="M944" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>0</v>
+      </c>
+      <c r="B945" s="1">
+        <v>0</v>
+      </c>
+      <c r="C945" s="1">
+        <v>6</v>
+      </c>
+      <c r="D945" s="1">
+        <v>31</v>
+      </c>
+      <c r="E945" s="1">
+        <v>115</v>
+      </c>
+      <c r="F945" s="1">
+        <v>317</v>
+      </c>
+      <c r="G945" s="1">
+        <v>422</v>
+      </c>
+      <c r="H945" s="1">
+        <v>563</v>
+      </c>
+      <c r="I945" s="1">
+        <v>437</v>
+      </c>
+      <c r="J945" s="1">
+        <v>295</v>
+      </c>
+      <c r="K945" s="1">
+        <v>191</v>
+      </c>
+      <c r="L945" s="1">
+        <v>115</v>
+      </c>
+      <c r="M945" s="1">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66723,7 +66892,7 @@
   <dimension ref="A1:N281"/>
   <sheetViews>
     <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A284" sqref="A284"/>
+      <selection activeCell="H278" sqref="H278:M278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
